--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33D10D9-2DBE-4FEF-BE0F-64EF4F298034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D992C-5E76-4C24-9B9B-9BF25E4DBC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8385" yWindow="1155" windowWidth="16155" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,6 +385,9 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D992C-5E76-4C24-9B9B-9BF25E4DBC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA3F587-0220-4FBE-837F-64CDA22DD9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="1155" windowWidth="16155" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapas1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Darbas</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Automobilio API</t>
+  </si>
+  <si>
+    <t>Router setupas</t>
+  </si>
+  <si>
+    <t>User accountai</t>
+  </si>
+  <si>
+    <t>19,00-</t>
   </si>
 </sst>
 </file>
@@ -354,18 +363,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -373,7 +383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -381,12 +391,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA3F587-0220-4FBE-837F-64CDA22DD9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041C4AF-CC46-47FE-859E-7FC5079F8896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapas1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Darbas</t>
   </si>
@@ -36,16 +36,13 @@
     <t>UML</t>
   </si>
   <si>
-    <t>Automobilio API</t>
-  </si>
-  <si>
     <t>Router setupas</t>
   </si>
   <si>
-    <t>User accountai</t>
-  </si>
-  <si>
-    <t>19,00-</t>
+    <t>User accountai (Database, api, registration form)</t>
+  </si>
+  <si>
+    <t>Automobilio Database,Api</t>
   </si>
 </sst>
 </file>
@@ -363,19 +360,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H5"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -383,7 +380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -391,26 +388,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041C4AF-CC46-47FE-859E-7FC5079F8896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE410F0C-9F7E-4513-B962-7B796D262721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Darbas</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Automobilio Database,Api</t>
+  </si>
+  <si>
+    <t>Login with JWT and logout</t>
+  </si>
+  <si>
+    <t>17,00-</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,6 +418,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE410F0C-9F7E-4513-B962-7B796D262721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B80ED-C44E-4FD5-889B-22A5E02900B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapas1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Darbas</t>
   </si>
@@ -48,7 +58,25 @@
     <t>Login with JWT and logout</t>
   </si>
   <si>
-    <t>17,00-</t>
+    <t>Puslapiu autorizacija pagal vartotojo tipa</t>
+  </si>
+  <si>
+    <t>Pirmos ataskaitos darymas</t>
+  </si>
+  <si>
+    <t>Antros ataskaitos darymas</t>
+  </si>
+  <si>
+    <t>Automobiliu, komentaru lentele bei ju sujungimas tarpusavy ir su vartotojais</t>
+  </si>
+  <si>
+    <t>Api komentaru</t>
+  </si>
+  <si>
+    <t>Komentaru ir automobiliu api taisymas</t>
+  </si>
+  <si>
+    <t>Paveiksleliu lentele ir prototipinis api</t>
   </si>
 </sst>
 </file>
@@ -84,8 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
@@ -366,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -410,6 +441,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
@@ -422,8 +469,48 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B80ED-C44E-4FD5-889B-22A5E02900B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505B1C90-A841-4881-A445-E6A1C22D1DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Darbas</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Paveiksleliu lentele ir prototipinis api</t>
+  </si>
+  <si>
+    <t>Paveiksleliu api taisymas ir frontendas</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C14"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -513,6 +516,14 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505B1C90-A841-4881-A445-E6A1C22D1DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018EE68-5874-4F2B-8FA8-4609CFBA8087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Darbas</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Paveiksleliu api taisymas ir frontendas</t>
+  </si>
+  <si>
+    <t>Pridejau telefono numeri su ngx mask</t>
+  </si>
+  <si>
+    <t>Padariau kad isikeltu daug paveiksleliu ir isirasytu i db</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -408,7 +414,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -524,6 +530,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018EE68-5874-4F2B-8FA8-4609CFBA8087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BA67A2-7EBC-4B5C-B887-509A1D68974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Darbas</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Padariau kad isikeltu daug paveiksleliu ir isirasytu i db</t>
+  </si>
+  <si>
+    <t>Skelbimu saraso redesign</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +549,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BA67A2-7EBC-4B5C-B887-509A1D68974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789C94A6-B02C-47F9-A156-AF336E4FA6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Darbas</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Skelbimu saraso redesign</t>
+  </si>
+  <si>
+    <t>Paveiksleliu api taisymas kad skelbimas rastu savo pics</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +560,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789C94A6-B02C-47F9-A156-AF336E4FA6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E4F538-1430-4493-89AC-A070DF6003EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Darbas</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Paveiksleliu api taisymas kad skelbimas rastu savo pics</t>
+  </si>
+  <si>
+    <t>Detailed listing view</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C19"/>
+  <dimension ref="B2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +571,14 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E4F538-1430-4493-89AC-A070DF6003EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE093CF-F765-49E6-BCA9-EC72E0AB2044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="705" windowWidth="12375" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapas1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Darbas</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Detailed listing view</t>
+  </si>
+  <si>
+    <t>Angular add new listing form</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C20"/>
+  <dimension ref="B2:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +582,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE093CF-F765-49E6-BCA9-EC72E0AB2044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E70F0-D74F-459C-84EF-9E7344F96F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="705" windowWidth="12375" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Darbas</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Angular add new listing form</t>
+  </si>
+  <si>
+    <t>Komentaru skelbimas</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C21"/>
+  <dimension ref="B2:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,6 +593,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Suvestine.xlsx
+++ b/Docs/Suvestine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertas\Desktop\Interaktyvios-interneto-technologijos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E70F0-D74F-459C-84EF-9E7344F96F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237FE56-08BF-4C81-AAEC-71A31326E9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="705" windowWidth="12375" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Darbas</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Komentaru skelbimas</t>
+  </si>
+  <si>
+    <t>Naudotojo automobiliu skelbimai</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +604,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
